--- a/Documentos/Documentacion 5er sprint.xlsx
+++ b/Documentos/Documentacion 5er sprint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\ProyectoIngSoftwareII\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="264">
   <si>
     <t xml:space="preserve">Requerimeintos no funcionales </t>
   </si>
@@ -814,6 +814,12 @@
   </si>
   <si>
     <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint6</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1067,19 +1073,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1110,35 +1107,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1161,6 +1129,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1780,31 +1777,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Sprint1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Sprint2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Sprint3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Sprint4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Sprint5</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>'Datos sprint'!$I$6:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Datos sprint'!$A$7,'Datos sprint'!$A$12,'Datos sprint'!$A$16,'Datos sprint'!$A$20,'Datos sprint'!$A$27)</c:f>
+              <c:f>('Datos sprint'!$A$7,'Datos sprint'!$A$12,'Datos sprint'!$A$16,'Datos sprint'!$A$20,'Datos sprint'!$A$27,'Datos sprint'!$A$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1819,6 +1822,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,12 +1859,38 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos sprint'!$I$6:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Datos sprint'!$B$7,'Datos sprint'!$B$12,'Datos sprint'!$B$16,'Datos sprint'!$B$20,'Datos sprint'!$B$27)</c:f>
+              <c:f>('Datos sprint'!$B$7,'Datos sprint'!$B$12,'Datos sprint'!$B$16,'Datos sprint'!$B$20,'Datos sprint'!$B$27,'Datos sprint'!$B$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -1873,6 +1905,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,27 +2335,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Datos sprint'!$A$21:$A$26</c:f>
+              <c:f>'Datos sprint'!$A$28:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,27 +2395,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Datos sprint'!$B$21:$B$26</c:f>
+              <c:f>'Datos sprint'!$B$28:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2868,9 +2903,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos sprint'!$I$6:$I$10</c:f>
+              <c:f>'Datos sprint'!$I$6:$I$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -2886,15 +2921,18 @@
                 <c:pt idx="4">
                   <c:v>Sprint 5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 6</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos sprint'!$J$6:$J$10</c:f>
+              <c:f>'Datos sprint'!$J$6:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-3</c:v>
                 </c:pt>
@@ -2909,6 +2947,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4860,15 +4901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>218514</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
+      <xdr:colOff>61631</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>935691</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:colOff>778808</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49307</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4896,15 +4937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>184896</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163606</xdr:rowOff>
+      <xdr:colOff>39219</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>902073</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127747</xdr:rowOff>
+      <xdr:colOff>756396</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4932,15 +4973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>935691</xdr:colOff>
+      <xdr:colOff>767604</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
+      <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>689161</xdr:colOff>
+      <xdr:colOff>521074</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:rowOff>82923</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5267,39 +5308,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -5394,14 +5437,14 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="40"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -5437,81 +5480,81 @@
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="40"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="2" t="s">
@@ -5524,14 +5567,14 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="12.75">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="40"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="1" t="s">
@@ -5596,7 +5639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5610,16 +5655,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -5820,7 +5865,7 @@
       <c r="E9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="11" t="s">
         <v>77</v>
       </c>
@@ -5845,7 +5890,7 @@
       <c r="E10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="11" t="s">
         <v>77</v>
       </c>
@@ -5920,7 +5965,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -5936,7 +5981,7 @@
       <c r="D14" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="17"/>
@@ -5961,7 +6006,7 @@
       <c r="D15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F15" s="17"/>
@@ -5986,7 +6031,7 @@
       <c r="D16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="17"/>
@@ -6014,7 +6059,7 @@
         <v>104</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -6030,7 +6075,7 @@
       <c r="D18" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="17"/>
@@ -6055,7 +6100,7 @@
       <c r="D19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F19" s="17"/>
@@ -6080,7 +6125,7 @@
       <c r="D20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F20" s="17"/>
@@ -6105,7 +6150,7 @@
       <c r="D21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F21" s="8"/>
@@ -6133,7 +6178,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="15"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -6143,13 +6188,13 @@
       <c r="B23" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="17"/>
@@ -6168,13 +6213,13 @@
       <c r="B24" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="17"/>
@@ -6196,10 +6241,10 @@
       <c r="C25" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F25" s="17"/>
@@ -6227,7 +6272,7 @@
         <v>133</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -6240,10 +6285,10 @@
       <c r="C27" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F27" s="17"/>
@@ -6265,10 +6310,10 @@
       <c r="C28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="17"/>
@@ -6290,10 +6335,10 @@
       <c r="C29" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F29" s="17"/>
@@ -6308,20 +6353,20 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.75">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="23" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="26" t="s">
         <v>169</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="28"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -6334,10 +6379,10 @@
       <c r="C31" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F31" s="17"/>
@@ -6362,7 +6407,7 @@
       <c r="D32" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F32" s="8"/>
@@ -6387,7 +6432,7 @@
       <c r="D33" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F33" s="8"/>
@@ -6412,7 +6457,7 @@
       <c r="D34" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F34" s="8"/>
@@ -6425,18 +6470,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="28" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="26" t="s">
         <v>185</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="28"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="6" t="s">
         <v>186</v>
       </c>
@@ -6451,10 +6496,10 @@
       <c r="C36" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F36" s="17"/>
@@ -6476,10 +6521,10 @@
       <c r="C37" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F37" s="17"/>
@@ -6504,7 +6549,7 @@
       <c r="D38" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F38" s="8"/>
@@ -6526,10 +6571,10 @@
       <c r="C39" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="17"/>
@@ -6544,34 +6589,34 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="30" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="27" t="s">
         <v>201</v>
       </c>
       <c r="E40" s="15"/>
-      <c r="F40" s="26"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1">
       <c r="A41" s="8"/>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>93</v>
       </c>
       <c r="F41" s="17"/>
@@ -6586,32 +6631,32 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.75">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:10" ht="12.75">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6627,7 +6672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -6640,14 +6687,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="3" spans="1:7" ht="34.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -6673,25 +6720,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="22" t="s">
         <v>155</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="7"/>
@@ -6771,15 +6818,15 @@
       <c r="C9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="32"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="16" t="s">
         <v>53</v>
       </c>
@@ -6798,7 +6845,7 @@
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="32"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="16" t="s">
         <v>60</v>
       </c>
@@ -6817,7 +6864,7 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="32"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="16" t="s">
         <v>63</v>
       </c>
@@ -6836,7 +6883,7 @@
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="32"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="16" t="s">
         <v>66</v>
       </c>
@@ -6967,10 +7014,10 @@
       <c r="B20" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>216</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -6991,7 +7038,7 @@
       <c r="C21" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>217</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -7009,10 +7056,10 @@
       <c r="B22" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>219</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -7047,15 +7094,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
       <c r="A25" s="7"/>
@@ -7077,7 +7124,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="35"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11" t="s">
         <v>227</v>
@@ -7096,7 +7143,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="35"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="7"/>
       <c r="C27" s="11" t="s">
         <v>229</v>
@@ -7139,7 +7186,7 @@
       <c r="C29" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>136</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -7160,7 +7207,7 @@
       <c r="C30" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>143</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -7181,7 +7228,7 @@
       <c r="C31" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>151</v>
       </c>
       <c r="E31" s="13" t="s">
@@ -7199,7 +7246,7 @@
       <c r="B32" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>232</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -7237,10 +7284,10 @@
       <c r="B34" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="13" t="s">
         <v>237</v>
       </c>
@@ -7254,10 +7301,10 @@
       <c r="B35" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="13" t="s">
         <v>237</v>
       </c>
@@ -7271,10 +7318,10 @@
       <c r="B36" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="13" t="s">
         <v>237</v>
       </c>
@@ -7288,7 +7335,7 @@
       <c r="B37" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>241</v>
       </c>
       <c r="D37" s="13"/>
@@ -7312,7 +7359,7 @@
       <c r="E38" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="33">
         <v>9</v>
       </c>
       <c r="G38" s="7"/>
@@ -7337,10 +7384,10 @@
       <c r="B40" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="13" t="s">
         <v>237</v>
       </c>
@@ -7354,10 +7401,10 @@
       <c r="B41" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="13" t="s">
         <v>237</v>
       </c>
@@ -7371,10 +7418,10 @@
       <c r="B42" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="13" t="s">
         <v>237</v>
       </c>
@@ -7460,10 +7507,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7475,13 +7522,13 @@
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="37" t="s">
         <v>256</v>
       </c>
       <c r="I2" s="12"/>
@@ -7490,13 +7537,13 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="52">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="34">
         <v>3</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="56" t="s">
         <v>55</v>
       </c>
       <c r="I3" s="12"/>
@@ -7505,62 +7552,62 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="52">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="34">
         <v>4</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="56"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="52">
+      <c r="A5" s="34">
         <v>8</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="34">
         <v>7</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="I5" s="59" t="s">
+      <c r="C5" s="56"/>
+      <c r="I5" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="41" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="52">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="34">
         <v>3</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="I6" s="59" t="s">
+      <c r="C6" s="56"/>
+      <c r="I6" s="41" t="s">
         <v>55</v>
       </c>
       <c r="J6">
         <v>-3</v>
       </c>
-      <c r="K6" s="59"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="52">
+      <c r="A7" s="34">
         <f>SUM(A3:A6)</f>
         <v>14</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="34">
         <f>SUM(B3:B6)</f>
         <v>17</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="41" t="s">
         <v>259</v>
       </c>
       <c r="J7">
@@ -7568,16 +7615,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="52">
+      <c r="A8" s="34">
         <v>16</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="34">
         <v>18</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="41" t="s">
         <v>58</v>
       </c>
       <c r="J8">
@@ -7585,14 +7632,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="52">
+      <c r="A9" s="34">
         <v>12</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="34">
         <v>18</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="I9" s="59" t="s">
+      <c r="C9" s="56"/>
+      <c r="I9" s="41" t="s">
         <v>72</v>
       </c>
       <c r="J9">
@@ -7600,14 +7647,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="52">
+      <c r="A10" s="34">
         <v>16</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="34">
         <v>15</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="I10" s="59" t="s">
+      <c r="C10" s="56"/>
+      <c r="I10" s="41" t="s">
         <v>260</v>
       </c>
       <c r="J10">
@@ -7615,206 +7662,258 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="52">
+      <c r="A11" s="34">
         <v>8</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="34">
         <v>6</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="56"/>
+      <c r="I11" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="52">
+      <c r="A12" s="34">
         <f>SUM(A8:A11)</f>
         <v>52</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="34">
         <f>SUM(B8:B11)</f>
         <v>57</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="40" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="53">
+      <c r="A13" s="35">
         <v>4</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="35">
         <v>5</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="56" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="53">
+      <c r="A14" s="35">
         <v>8</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="56"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="53">
+      <c r="A15" s="35">
         <v>4</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="35">
         <v>6</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="53">
+      <c r="A16" s="35">
         <f>SUM(A13:A15)</f>
         <v>16</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="35">
         <f>SUM(B13:B15)</f>
         <v>18</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="40" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="52">
+      <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="34">
         <v>15</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="56" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="52">
+      <c r="A18" s="34">
         <v>12</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="34">
         <v>16</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="56"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="52">
+      <c r="A19" s="34">
         <v>16</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="34">
         <v>12</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="56"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="52">
+      <c r="A20" s="34">
         <f>SUM(A17:A19)</f>
         <v>44</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="34">
         <f>SUM(B17:B19)</f>
         <v>43</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="40" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="52">
+      <c r="A21" s="34">
         <v>9</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="34">
         <v>7</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="55" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="52">
+      <c r="A22" s="34">
         <v>5</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="34">
         <v>6</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="55"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="52">
+      <c r="A23" s="34">
         <v>5</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="34">
         <v>6</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="55"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="52">
+      <c r="A24" s="34">
         <v>9</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="36">
         <v>7</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="55"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="52">
+      <c r="A25" s="34">
         <v>5</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="36">
         <v>6</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="55"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="52">
+      <c r="A26" s="34">
         <v>5</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="36">
         <v>6</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="55"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="56">
+      <c r="A27" s="38">
         <f>SUM(A21:A26)</f>
         <v>38</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="38">
         <f>SUM(B21:B26)</f>
         <v>38</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="39" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="34">
+        <v>5</v>
+      </c>
+      <c r="B28" s="34">
+        <v>4</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="12.75">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="34">
+        <v>3</v>
+      </c>
+      <c r="B29" s="34">
+        <v>2</v>
+      </c>
+      <c r="C29" s="55"/>
     </row>
     <row r="30" spans="1:3" ht="12.75">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="34">
+        <v>2</v>
+      </c>
+      <c r="B30" s="34">
+        <v>3</v>
+      </c>
+      <c r="C30" s="55"/>
     </row>
     <row r="31" spans="1:3" ht="12.75">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="34">
+        <v>5</v>
+      </c>
+      <c r="B31" s="36">
+        <v>4</v>
+      </c>
+      <c r="C31" s="55"/>
     </row>
     <row r="32" spans="1:3" ht="12.75">
-      <c r="A32" s="23"/>
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="1:2" ht="12.75">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A32" s="34">
+        <v>3</v>
+      </c>
+      <c r="B32" s="36">
+        <v>3</v>
+      </c>
+      <c r="C32" s="55"/>
+    </row>
+    <row r="33" spans="1:3" ht="12.75">
+      <c r="A33" s="34">
+        <v>3</v>
+      </c>
+      <c r="B33" s="36">
+        <v>3</v>
+      </c>
+      <c r="C33" s="55"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="38">
+        <f>SUM(A28:A33)</f>
+        <v>21</v>
+      </c>
+      <c r="B34" s="38">
+        <f>SUM(B28:B33)</f>
+        <v>19</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C28:C33"/>
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C13:C15"/>
